--- a/дз7.xlsx
+++ b/дз7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\goit-markup-hw-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\goit-markup-hw-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C755B-D73A-4225-80D7-6E4E482DBC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E67658-8067-4E03-B237-BD166F442AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58BD71A0-4E68-48FF-A017-EF2B7E0DF48F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Оформлення​</t>
   </si>
@@ -39,6 +39,53 @@
     <t>Розмітка​</t>
   </si>
   <si>
+    <t>Критерії приймання роботи наставником​</t>
+  </si>
+  <si>
+    <r>
+      <t>Для здачі домашнього завдання достатньо зробити адаптивну верстку головної сторінки (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>). Виконання адаптивної верстки сторінки портфорліо (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>portfolio.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>) не обов'язкове для здачі домашнього завдання.</t>
+    </r>
+  </si>
+  <si>
+    <t>Проект​</t>
+  </si>
+  <si>
     <r>
       <t>«A1»</t>
     </r>
@@ -50,33 +97,48 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> Всі стилі написані в одному файлі </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>styles.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, який знаходиться в папці </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>css</t>
+      <t> При перегляді сторінки на будь-якому пристрої шириною від </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>320px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, не з'являється горизонтальна смуга прокручування.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«A2»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> Скрипт мобільного меню підключений в HTML окремим файлом </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>mobile-menu.js</t>
     </r>
     <r>
       <rPr>
@@ -90,26 +152,50 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>«A2»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Вихідний код відформатований за допомогою </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>Prettier</t>
+    <t>СКРИПТ МОБІЛЬНОГО МЕНЮ</t>
+  </si>
+  <si>
+    <t>Повний приклад створення мобільного меню з уже написаним скриптом розбери у майстерні.</t>
+  </si>
+  <si>
+    <r>
+      <t>«B1»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> У всіх сторінок в блоці </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>&lt;head&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> є метатег </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>viewport</t>
     </r>
     <r>
       <rPr>
@@ -124,27 +210,6 @@
   </si>
   <si>
     <r>
-      <t>«A3»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Всі зображення та текстовий контент взяті з макета.</t>
-    </r>
-  </si>
-  <si>
-    <t>«A4» На всіх HTML-сторінках підключений нормалізатор стилів modern-normalize.</t>
-  </si>
-  <si>
-    <t>«A5» Код написаний з дотриманням настанови.</t>
-  </si>
-  <si>
-    <r>
       <t>«B2»</t>
     </r>
     <r>
@@ -155,22 +220,43 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> Теги використані відповідно до їх семантичного змісту.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«B1»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Виконана HTML-розмітка всіх елементів макета.</t>
+      <t> Всі фонові і контентні растрові зображення - респонсивні і підтримують екрани щільністю </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>x1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> і </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -185,7 +271,43 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> Виконана розмітка форми підписки на розсилання і всіх її елементів у футері.</t>
+      <t> Для респонсивних фонових зображень використані медіа-функціі </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>min-device-pixel-ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> і </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>min-resolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -200,30 +322,48 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> Виконана розмітка форми заявки та всіх її елементів в модальному вікні.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«B5»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> У всіх інпутів у формах заданий атрибут </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>name</t>
+      <t> Виконана розмітка мобільного меню.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«C1»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> При написанні стилів використаний </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>Mobile First</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> підхід і медіа-функція </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>(min-width: )</t>
     </r>
     <r>
       <rPr>
@@ -238,58 +378,43 @@
   </si>
   <si>
     <r>
-      <t>«B6»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Значення атрибута </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> описові, що точно характеризує, для чого це поле форми.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«B7»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> У всіх інпутів є пов'язаний елемент </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>&lt;label&gt;</t>
+      <t>«C2»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> Стилі, необхідні тільки у певному проміжку, закриті в медіа-запити </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>(min-width: ) and (max-width: )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> або тільки </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Var(--ifm-font-family-monospace"/>
+      </rPr>
+      <t>(max-width: )</t>
     </r>
     <r>
       <rPr>
@@ -303,236 +428,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>«B8»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Інпутам заданий атрибут </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>placeholder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, якщо для нього в макеті є текст-підказка.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«B9»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Кнопкам «відправлення» форм заданий атрибут </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>type="submit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«B10»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Всі нові іконки з форм додані в SVG-спрайт </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>icons.svg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«C1»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Виконано оформлення елементів форми підписки на розсилання у футері.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«C2»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Виконано оформлення елементів форми заявки у модальному вікні.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«C3»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> При отриманні інпутом фокусу, його рамка та іконка змінюють колір (як показано на макеті).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«C4»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Оригінальний чекбокс про прийняття ліцензійної угоди у формі заявки прихований.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«C5»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Оформлення «чекбокса» про прийняття ліцензійної угоди зроблено вручну, за допомогою векторного зображення галочки з SVG-спрайту.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«C6»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Для всіх ефектів ховера і фокуса (колір, фон, тінь) зроблені переходи. час - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>250ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, функція розподілу часу - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Var(--ifm-font-family-monospace"/>
-      </rPr>
-      <t>cubic-bezier(0.4, 0, 0.2, 1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1E21"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>Стовпець1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,28 +478,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -605,12 +503,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top style="thick">
         <color auto="1"/>
-      </left>
-      <right style="thick">
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -620,18 +525,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -639,22 +547,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,7 +579,34 @@
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -673,6 +617,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DEAF768-C307-4701-9B35-BD692D5BCFA6}" name="Таблиця1" displayName="Таблиця1" ref="A1:A30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" headerRowCellStyle="Гіперпосилання">
+  <autoFilter ref="A1:A30" xr:uid="{DFC0A2B7-D009-495D-AE03-AF1D7CFF0E17}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C664DFDA-D1CF-47F0-B1B1-CFF5A2295726}" name="Стовпець1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A8560A-8672-4147-86A3-F3D9707688B1}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -983,162 +937,142 @@
     <col min="1" max="1" width="129.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickTop="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15">
-      <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15">
-      <c r="A31" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15">
-      <c r="A35" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15">
-      <c r="A37" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15">
-      <c r="A39" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15">
-      <c r="A41" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="30">
-      <c r="A43" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15">
-      <c r="A45" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" ht="15" thickBot="1">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://github.com/sindresorhus/modern-normalize" xr:uid="{DF0B373C-2D21-470D-A2B5-2A36E14498C7}"/>
-    <hyperlink ref="A9" r:id="rId2" display="https://codeguide.co/" xr:uid="{03557444-E0C2-4CAB-A8E4-D5AD30698241}"/>
-    <hyperlink ref="A11" r:id="rId3" location="%D1%80%D0%BE%D0%B7%D0%BC%D1%96%D1%82%D0%BA%D0%B0" tooltip="Пряме посилання на цей заголовок" display="%D1%80%D0%BE%D0%B7%D0%BC%D1%96%D1%82%D0%BA%D0%B0" xr:uid="{DC5C6867-2DDE-4736-8554-70B45B571C21}"/>
-    <hyperlink ref="A33" r:id="rId4" location="%D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%BB%D0%B5%D0%BD%D0%BD%D1%8F" tooltip="Пряме посилання на цей заголовок" display="https://textbook.edu.goit.global/html-css-homework/uk/docs/1.1/hw-06/ - %D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%BB%D0%B5%D0%BD%D0%BD%D1%8F" xr:uid="{0FD07ABB-84AC-493A-8749-33D548C4E990}"/>
+    <hyperlink ref="A2" r:id="rId1" location="%D0%BA%D1%80%D0%B8%D1%82%D0%B5%D1%80%D1%96%D1%97-%D0%BF%D1%80%D0%B8%D0%B9%D0%BC%D0%B0%D0%BD%D0%BD%D1%8F-%D1%80%D0%BE%D0%B1%D0%BE%D1%82%D0%B8-%D0%BD%D0%B0%D1%81%D1%82%D0%B0%D0%B2%D0%BD%D0%B8%D0%BA%D0%BE%D0%BC" tooltip="Пряме посилання на цей заголовок" display="https://textbook.edu.goit.global/html-css-homework/uk/docs/1.1/hw-07/ - %D0%BA%D1%80%D0%B8%D1%82%D0%B5%D1%80%D1%96%D1%97-%D0%BF%D1%80%D0%B8%D0%B9%D0%BC%D0%B0%D0%BD%D0%BD%D1%8F-%D1%80%D0%BE%D0%B1%D0%BE%D1%82%D0%B8-%D0%BD%D0%B0%D1%81%D1%82%D0%B0%D0%B2%D0%BD%D0%B8%D0%BA%D0%BE%D0%BC" xr:uid="{945ED110-9A25-4ED5-811A-D01D52EFDB7A}"/>
+    <hyperlink ref="A6" r:id="rId2" location="%D0%BF%D1%80%D0%BE%D0%B5%D0%BA%D1%82" tooltip="Пряме посилання на цей заголовок" display="https://textbook.edu.goit.global/html-css-homework/uk/docs/1.1/hw-07/ - %D0%BF%D1%80%D0%BE%D0%B5%D0%BA%D1%82" xr:uid="{92A7F725-3C17-4E4F-A17B-1BE6B7DB51E0}"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://github.com/goitacademy/mobile-menu-workshop" xr:uid="{42533A39-254C-429C-AB7C-0C7F93579157}"/>
+    <hyperlink ref="A16" r:id="rId4" location="%D1%80%D0%BE%D0%B7%D0%BC%D1%96%D1%82%D0%BA%D0%B0" tooltip="Пряме посилання на цей заголовок" display="https://textbook.edu.goit.global/html-css-homework/uk/docs/1.1/hw-07/ - %D1%80%D0%BE%D0%B7%D0%BC%D1%96%D1%82%D0%BA%D0%B0" xr:uid="{1D608104-EB37-4803-94B6-AD5E8BA02DA2}"/>
+    <hyperlink ref="A26" r:id="rId5" location="%D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%BB%D0%B5%D0%BD%D0%BD%D1%8F" tooltip="Пряме посилання на цей заголовок" display="https://textbook.edu.goit.global/html-css-homework/uk/docs/1.1/hw-07/ - %D0%BE%D1%84%D0%BE%D1%80%D0%BC%D0%BB%D0%B5%D0%BD%D0%BD%D1%8F" xr:uid="{32F366CB-EE7C-425F-9F0B-BAE23EDA344A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
 
